--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H2">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J2">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N2">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O2">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P2">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q2">
-        <v>0.09641620827733335</v>
+        <v>1.040450606522889</v>
       </c>
       <c r="R2">
-        <v>0.867745874496</v>
+        <v>9.364055458706</v>
       </c>
       <c r="S2">
-        <v>0.0001102890840480507</v>
+        <v>0.007236170902436109</v>
       </c>
       <c r="T2">
-        <v>0.0001102890840480507</v>
+        <v>0.007236170902436108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H3">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J3">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +626,22 @@
         <v>0.02585</v>
       </c>
       <c r="O3">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P3">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q3">
-        <v>0.04494299956666667</v>
+        <v>0.1816156834555556</v>
       </c>
       <c r="R3">
-        <v>0.4044869961</v>
+        <v>1.6345411511</v>
       </c>
       <c r="S3">
-        <v>5.140963687684129E-05</v>
+        <v>0.001263108614486859</v>
       </c>
       <c r="T3">
-        <v>5.14096368768413E-05</v>
+        <v>0.001263108614486859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.215822</v>
+        <v>21.07725533333333</v>
       </c>
       <c r="H4">
-        <v>15.647466</v>
+        <v>63.231766</v>
       </c>
       <c r="I4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="J4">
-        <v>0.04031814991753075</v>
+        <v>0.1567570073990861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N4">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O4">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P4">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q4">
-        <v>35.10531251273867</v>
+        <v>21.31719178229622</v>
       </c>
       <c r="R4">
-        <v>315.947812614648</v>
+        <v>191.854726040666</v>
       </c>
       <c r="S4">
-        <v>0.04015645119660586</v>
+        <v>0.1482577278821631</v>
       </c>
       <c r="T4">
-        <v>0.04015645119660586</v>
+        <v>0.1482577278821631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -735,40 +732,40 @@
         <v>254.912293</v>
       </c>
       <c r="I5">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J5">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N5">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O5">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P5">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q5">
-        <v>1.570712902289778</v>
+        <v>4.194468486962555</v>
       </c>
       <c r="R5">
-        <v>14.136416120608</v>
+        <v>37.750216382663</v>
       </c>
       <c r="S5">
-        <v>0.00179671541114442</v>
+        <v>0.02917187094347274</v>
       </c>
       <c r="T5">
-        <v>0.00179671541114442</v>
+        <v>0.02917187094347274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -797,10 +794,10 @@
         <v>254.912293</v>
       </c>
       <c r="I6">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J6">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +812,10 @@
         <v>0.02585</v>
       </c>
       <c r="O6">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P6">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q6">
         <v>0.7321647526722221</v>
@@ -827,10 +824,10 @@
         <v>6.589482774049999</v>
       </c>
       <c r="S6">
-        <v>0.0008375125032112528</v>
+        <v>0.005092091105393104</v>
       </c>
       <c r="T6">
-        <v>0.0008375125032112532</v>
+        <v>0.005092091105393105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +856,10 @@
         <v>254.912293</v>
       </c>
       <c r="I7">
-        <v>0.6568214971673703</v>
+        <v>0.6319495836937242</v>
       </c>
       <c r="J7">
-        <v>0.6568214971673704</v>
+        <v>0.6319495836937243</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N7">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O7">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P7">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q7">
-        <v>571.8993547647782</v>
+        <v>85.93804319091586</v>
       </c>
       <c r="R7">
-        <v>5147.094192883004</v>
+        <v>773.4423887182428</v>
       </c>
       <c r="S7">
-        <v>0.6541872692530145</v>
+        <v>0.5976856216448584</v>
       </c>
       <c r="T7">
-        <v>0.6541872692530146</v>
+        <v>0.5976856216448585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>27.92722666666667</v>
+      </c>
+      <c r="H8">
+        <v>83.78167999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.2077020185023436</v>
+      </c>
+      <c r="J8">
+        <v>0.2077020185023436</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G8">
-        <v>0.03355766666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.100673</v>
-      </c>
-      <c r="I8">
-        <v>0.0002593997716082318</v>
-      </c>
-      <c r="J8">
-        <v>0.0002593997716082318</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M8">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N8">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O8">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P8">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q8">
-        <v>0.0006203246542222223</v>
+        <v>1.378590308097778</v>
       </c>
       <c r="R8">
-        <v>0.005582921888</v>
+        <v>12.40731277288</v>
       </c>
       <c r="S8">
-        <v>7.095802578110354E-07</v>
+        <v>0.009587879531519225</v>
       </c>
       <c r="T8">
-        <v>7.095802578110354E-07</v>
+        <v>0.009587879531519223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +959,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H9">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I9">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J9">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +998,22 @@
         <v>0.02585</v>
       </c>
       <c r="O9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q9">
-        <v>0.0002891552277777778</v>
+        <v>0.2406396031111111</v>
       </c>
       <c r="R9">
-        <v>0.00260239705</v>
+        <v>2.165756428</v>
       </c>
       <c r="S9">
-        <v>3.307604166260686E-07</v>
+        <v>0.001673610725093165</v>
       </c>
       <c r="T9">
-        <v>3.307604166260687E-07</v>
+        <v>0.001673610725093165</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.03355766666666667</v>
+        <v>27.92722666666667</v>
       </c>
       <c r="H10">
-        <v>0.100673</v>
+        <v>83.78167999999999</v>
       </c>
       <c r="I10">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="J10">
-        <v>0.0002593997716082318</v>
+        <v>0.2077020185023436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N10">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O10">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P10">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q10">
-        <v>0.2258613072937778</v>
+        <v>28.24514090596444</v>
       </c>
       <c r="R10">
-        <v>2.032751765644</v>
+        <v>254.20626815368</v>
       </c>
       <c r="S10">
-        <v>0.0002583594309337947</v>
+        <v>0.1964405282457312</v>
       </c>
       <c r="T10">
-        <v>0.0002583594309337947</v>
+        <v>0.1964405282457312</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1083,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H11">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I11">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J11">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N11">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O11">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P11">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q11">
-        <v>0.7215805199431112</v>
+        <v>0.022154265509</v>
       </c>
       <c r="R11">
-        <v>6.494224679488</v>
+        <v>0.199388389581</v>
       </c>
       <c r="S11">
-        <v>0.0008254053549018388</v>
+        <v>0.0001540794444599547</v>
       </c>
       <c r="T11">
-        <v>0.0008254053549018388</v>
+        <v>0.0001540794444599547</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1145,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H12">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I12">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J12">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1184,22 @@
         <v>0.02585</v>
       </c>
       <c r="O12">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P12">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q12">
-        <v>0.3363541625888889</v>
+        <v>0.003867134149999999</v>
       </c>
       <c r="R12">
-        <v>3.0271874633</v>
+        <v>0.03480420735</v>
       </c>
       <c r="S12">
-        <v>0.0003847505846835785</v>
+        <v>2.689531193178403E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003847505846835786</v>
+        <v>2.689531193178403E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1207,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>39.03529933333333</v>
+        <v>0.4487969999999999</v>
       </c>
       <c r="H13">
-        <v>117.105898</v>
+        <v>1.346391</v>
       </c>
       <c r="I13">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="J13">
-        <v>0.3017417102418414</v>
+        <v>0.003337819537557481</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N13">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O13">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P13">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q13">
-        <v>262.7287476691049</v>
+        <v>0.4539059554489999</v>
       </c>
       <c r="R13">
-        <v>2364.558729021944</v>
+        <v>4.085153599040999</v>
       </c>
       <c r="S13">
-        <v>0.3005315543022559</v>
+        <v>0.003156844781165743</v>
       </c>
       <c r="T13">
-        <v>0.3005315543022559</v>
+        <v>0.003156844781165742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1269,61 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.03409466666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.102284</v>
+      </c>
+      <c r="I14">
+        <v>0.0002535708672885733</v>
+      </c>
+      <c r="J14">
+        <v>0.0002535708672885733</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.008067</v>
-      </c>
-      <c r="H14">
-        <v>0.024201</v>
-      </c>
-      <c r="I14">
-        <v>6.235767159705997E-05</v>
-      </c>
-      <c r="J14">
-        <v>6.235767159705999E-05</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M14">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N14">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O14">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P14">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q14">
-        <v>0.000149121184</v>
+        <v>0.001683037760444444</v>
       </c>
       <c r="R14">
-        <v>0.001342090656</v>
+        <v>0.015147339844</v>
       </c>
       <c r="S14">
-        <v>1.70577531406483E-07</v>
+        <v>1.170526384768021E-05</v>
       </c>
       <c r="T14">
-        <v>1.705775314064831E-07</v>
+        <v>1.170526384768021E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1331,31 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H15">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I15">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J15">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1370,22 @@
         <v>0.02585</v>
       </c>
       <c r="O15">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P15">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q15">
-        <v>6.951064999999999E-05</v>
+        <v>0.0002937823777777778</v>
       </c>
       <c r="R15">
-        <v>0.00062559585</v>
+        <v>0.0026440414</v>
       </c>
       <c r="S15">
-        <v>7.951221124598935E-08</v>
+        <v>2.043210394031599E-06</v>
       </c>
       <c r="T15">
-        <v>7.951221124598938E-08</v>
+        <v>2.043210394031599E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1393,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.008067</v>
+        <v>0.03409466666666667</v>
       </c>
       <c r="H16">
-        <v>0.024201</v>
+        <v>0.102284</v>
       </c>
       <c r="I16">
-        <v>6.235767159705997E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="J16">
-        <v>6.235767159705999E-05</v>
+        <v>0.0002535708672885733</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,214 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N16">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O16">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P16">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q16">
-        <v>0.054295287692</v>
+        <v>0.03448278898711111</v>
       </c>
       <c r="R16">
-        <v>0.4886575892280001</v>
+        <v>0.310345100884</v>
       </c>
       <c r="S16">
-        <v>6.21075818544075E-05</v>
+        <v>0.0002398223930468615</v>
       </c>
       <c r="T16">
-        <v>6.210758185440752E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.309271</v>
-      </c>
-      <c r="I17">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J17">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.01848533333333334</v>
-      </c>
-      <c r="N17">
-        <v>0.05545600000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.002735469863414935</v>
-      </c>
-      <c r="P17">
-        <v>0.002735469863414935</v>
-      </c>
-      <c r="Q17">
-        <v>0.001905659175111111</v>
-      </c>
-      <c r="R17">
-        <v>0.017150932576</v>
-      </c>
-      <c r="S17">
-        <v>2.179855531408389E-06</v>
-      </c>
-      <c r="T17">
-        <v>2.179855531408389E-06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.309271</v>
-      </c>
-      <c r="I18">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J18">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.008616666666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.02585</v>
-      </c>
-      <c r="O18">
-        <v>0.001275099105043207</v>
-      </c>
-      <c r="P18">
-        <v>0.001275099105043207</v>
-      </c>
-      <c r="Q18">
-        <v>0.000888295038888889</v>
-      </c>
-      <c r="R18">
-        <v>0.007994655350000001</v>
-      </c>
-      <c r="S18">
-        <v>1.016107643661765E-06</v>
-      </c>
-      <c r="T18">
-        <v>1.016107643661765E-06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1030903333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.309271</v>
-      </c>
-      <c r="I19">
-        <v>0.0007968852300522431</v>
-      </c>
-      <c r="J19">
-        <v>0.0007968852300522432</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>6.730542666666667</v>
-      </c>
-      <c r="N19">
-        <v>20.191628</v>
-      </c>
-      <c r="O19">
-        <v>0.9959894310315418</v>
-      </c>
-      <c r="P19">
-        <v>0.9959894310315418</v>
-      </c>
-      <c r="Q19">
-        <v>0.693853887020889</v>
-      </c>
-      <c r="R19">
-        <v>6.244684983188001</v>
-      </c>
-      <c r="S19">
-        <v>0.0007936892668771729</v>
-      </c>
-      <c r="T19">
-        <v>0.000793689266877173</v>
+        <v>0.0002398223930468614</v>
       </c>
     </row>
   </sheetData>
